--- a/OnlyTestingProject/Datautils/loginDataprovider.xlsx
+++ b/OnlyTestingProject/Datautils/loginDataprovider.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sonal</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>sabrina</t>
+  </si>
+  <si>
+    <t>Shehzad</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>12345</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -483,6 +486,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>12345</v>
       </c>
     </row>

--- a/OnlyTestingProject/Datautils/loginDataprovider.xlsx
+++ b/OnlyTestingProject/Datautils/loginDataprovider.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sonal</t>
   </si>
@@ -55,6 +55,39 @@
   </si>
   <si>
     <t>Shehzad</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>cdf456</t>
+  </si>
+  <si>
+    <t>asw12.0</t>
+  </si>
+  <si>
+    <t>qwe334t</t>
+  </si>
+  <si>
+    <t>12#anh</t>
+  </si>
+  <si>
+    <t>weert90</t>
+  </si>
+  <si>
+    <t>qewe#$</t>
+  </si>
+  <si>
+    <t>dff4</t>
+  </si>
+  <si>
+    <t>sd33</t>
+  </si>
+  <si>
+    <t>fke00</t>
   </si>
 </sst>
 </file>
@@ -389,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,100 +434,136 @@
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>123456</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>12345</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>12345</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
